--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3239681.585952029</v>
+        <v>3235375.869575958</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>15.14483238681376</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>350.9227305516484</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>126.0887386816666</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>80.79459101163422</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>372.5327915267488</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>9.764863467406773</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>104.6795171151345</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>86.78091550497341</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>326.1230146347445</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>75.95837434468253</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>171.6077943550378</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.35680705404113</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>23.6255456814127</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>90.83656612960172</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>245.9350989189676</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>32.26041896250414</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>30.87238256912001</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>115.0893535554425</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>281.2018129503336</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>71.05846343488193</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>105.11626575513</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>67.60860312451699</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>84.53948348634543</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.92847288552876</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>97.24762927924141</v>
+        <v>46.29306638367343</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X2" t="n">
-        <v>2134.880026519315</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y2" t="n">
-        <v>1780.41262192169</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>880.7122078777245</v>
+        <v>1954.241103772296</v>
       </c>
       <c r="C5" t="n">
-        <v>880.7122078777245</v>
+        <v>1585.278586831885</v>
       </c>
       <c r="D5" t="n">
-        <v>880.7122078777245</v>
+        <v>1227.012888225134</v>
       </c>
       <c r="E5" t="n">
-        <v>880.7122078777245</v>
+        <v>841.2246356268899</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>430.2387308372824</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1267.312047941846</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1267.312047941846</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>718.2654857545084</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>718.2654857545084</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>718.2654857545084</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>718.2654857545084</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>394.4025473335336</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1433.131994131546</v>
+        <v>1590.992732478547</v>
       </c>
       <c r="C8" t="n">
-        <v>1064.169477191135</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
-        <v>1064.169477191135</v>
+        <v>863.7645169313847</v>
       </c>
       <c r="E8" t="n">
-        <v>678.3812245928902</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>617.9730006750465</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1225.181390527221</v>
+        <v>1830.581063083657</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587068</v>
+        <v>2381.261620430141</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2209.87116617148</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.87116617148</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2209.87116617148</v>
+        <v>2367.73190451848</v>
       </c>
       <c r="Y8" t="n">
-        <v>1819.731834195668</v>
+        <v>1977.592572542669</v>
       </c>
     </row>
     <row r="9">
@@ -4892,7 +4892,7 @@
         <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.889514203793</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
         <v>1432.170805967367</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71.81756957972706</v>
+        <v>795.503567798275</v>
       </c>
       <c r="C10" t="n">
-        <v>71.81756957972706</v>
+        <v>795.503567798275</v>
       </c>
       <c r="D10" t="n">
-        <v>71.81756957972706</v>
+        <v>645.3869283859392</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972706</v>
+        <v>497.4738348035461</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>350.5838873056357</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>350.5838873056357</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="I10" t="n">
         <v>71.81756957972706</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>977.1520326285147</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>977.1520326285147</v>
       </c>
       <c r="T10" t="n">
-        <v>542.618210832287</v>
+        <v>977.1520326285147</v>
       </c>
       <c r="U10" t="n">
-        <v>253.4660344099668</v>
+        <v>977.1520326285147</v>
       </c>
       <c r="V10" t="n">
-        <v>253.4660344099668</v>
+        <v>977.1520326285147</v>
       </c>
       <c r="W10" t="n">
-        <v>253.4660344099668</v>
+        <v>977.1520326285147</v>
       </c>
       <c r="X10" t="n">
-        <v>253.4660344099668</v>
+        <v>977.1520326285147</v>
       </c>
       <c r="Y10" t="n">
-        <v>253.4660344099668</v>
+        <v>977.1520326285147</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,16 +5038,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5056,13 +5056,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2434.48146029335</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2251.626625948255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2251.626625948255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1962.551399292452</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1707.866911086565</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.449741049605</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.460190151587</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.6676110080573</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>2565.513299557012</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>3162.891787183563</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>3790.48975073817</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>4342.399480977458</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5415,22 +5415,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,25 +5597,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.131916132773</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O18" t="n">
-        <v>2356.04164637206</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>961.4446166151475</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>792.5084336872407</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>642.3917942749049</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>494.4787006925118</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1363.885660588917</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1143.093081445387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5831,25 +5831,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3026.711098656041</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3026.711098656041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3429.152142629811</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3429.152142629811</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3208.359563486281</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3194.624135499465</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>3025.687952571559</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D25" t="n">
-        <v>2875.571313159223</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4658.246870618286</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4475.392036273191</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4255.790571296132</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3966.71534464033</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3712.030856434443</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3422.613686397483</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3194.624135499465</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3194.624135499465</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6320,10 +6320,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>2165.878320670274</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1876.803094014472</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6448,13 +6448,13 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6505,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1317.449493370594</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1089.459942472577</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>868.6673633290469</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,25 +6782,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1876.273679552237</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1621.58919134635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1332.172021309389</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,25 +6919,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3266.400361191265</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3097.464178263358</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>2947.347538851023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4440.9326143059</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4186.248126100013</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3896.830956063052</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3668.841405165035</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3448.048826021505</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>810.0653816078141</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C40" t="n">
-        <v>641.1291986799072</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D40" t="n">
-        <v>491.0125592675714</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2311.62586152507</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2092.024396548011</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1802.949169892209</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1548.264681686322</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W40" t="n">
-        <v>1258.847511649361</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X40" t="n">
-        <v>1030.857960751344</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y40" t="n">
-        <v>810.0653816078141</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300425</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>3807.864035926977</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>4435.461999481584</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.7594328861248</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C43" t="n">
-        <v>390.823249958218</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D43" t="n">
-        <v>240.7066105458822</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2425.823211978716</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2242.968377633621</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2023.366912656562</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1734.29168600076</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>1479.607197794873</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>1190.190027757912</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X43" t="n">
-        <v>962.2004768598947</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y43" t="n">
-        <v>741.4078977163646</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="44">
@@ -7730,22 +7730,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057244</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1876.803094014472</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.385923977512</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079494</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935964</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>424.7565424512798</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>359.9458024792946</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.01843965608055</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>122.8084169651565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>54.58448189332952</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>40.58789941762342</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>86.4655746247242</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.11482774761755</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>186.5330677581682</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>171.4336447811485</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>4.982661438910554</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>75.37549921168724</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>113.4176828771276</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>60.88156453658581</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>45.44677382459292</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>154.8900140445866</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>711132.8264488541</v>
+        <v>711132.8264488542</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>711132.8264488542</v>
+        <v>711132.8264488541</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>711132.8264488541</v>
+        <v>711132.8264488542</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287557</v>
-      </c>
       <c r="I2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="K2" t="n">
-        <v>706253.2747287551</v>
-      </c>
       <c r="L2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="M2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="N2" t="n">
-        <v>706253.2747287551</v>
-      </c>
       <c r="O2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.274728755</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26423,16 +26423,16 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
@@ -26447,10 +26447,10 @@
         <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="M4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-164337.8241097391</v>
+        <v>-164337.8241097395</v>
       </c>
       <c r="C6" t="n">
         <v>425630.0551048052</v>
       </c>
       <c r="D6" t="n">
-        <v>269826.2490110101</v>
+        <v>269826.2490110098</v>
       </c>
       <c r="E6" t="n">
-        <v>-171599.4830426409</v>
+        <v>-171946.8622969979</v>
       </c>
       <c r="F6" t="n">
-        <v>599453.2083381658</v>
+        <v>599105.8290838085</v>
       </c>
       <c r="G6" t="n">
-        <v>599453.2083381653</v>
+        <v>599105.8290838087</v>
       </c>
       <c r="H6" t="n">
-        <v>599453.2083381659</v>
+        <v>599105.8290838088</v>
       </c>
       <c r="I6" t="n">
-        <v>599453.2083381653</v>
+        <v>599105.8290838087</v>
       </c>
       <c r="J6" t="n">
-        <v>423029.9891455725</v>
+        <v>422682.6098912156</v>
       </c>
       <c r="K6" t="n">
-        <v>599453.2083381653</v>
+        <v>599105.8290838085</v>
       </c>
       <c r="L6" t="n">
-        <v>599453.2083381653</v>
+        <v>599105.8290838085</v>
       </c>
       <c r="M6" t="n">
-        <v>475244.6976301072</v>
+        <v>474897.3183757499</v>
       </c>
       <c r="N6" t="n">
-        <v>599453.2083381653</v>
+        <v>599105.8290838088</v>
       </c>
       <c r="O6" t="n">
-        <v>599453.2083381658</v>
+        <v>599105.8290838082</v>
       </c>
       <c r="P6" t="n">
-        <v>599453.2083381659</v>
+        <v>599105.8290838087</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>201.303487970844</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.3152081044052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>86.05680026835228</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8578157762263</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>326.0814547300772</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>41.25137849404621</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>136.9003285127511</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>113.9051362369603</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>320.095130236738</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27912,13 +27912,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>43.60808604372448</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>53.21480732310879</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>51.76511036572086</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>250.3097721075159</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P18" t="n">
-        <v>332.9841464938405</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32551,28 +32551,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>264.8708611242914</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>163.1438255932938</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,28 +33259,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33502,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>638.4800548179295</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O36" t="n">
-        <v>537.262354434964</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940682</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>695.222208616788</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>613.3418079314895</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>556.2429872186707</v>
       </c>
       <c r="O8" t="n">
         <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35430,7 +35430,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>116.3353646931857</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P18" t="n">
-        <v>199.0097390795103</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>127.0294221499325</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>20.54758114884936</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>496.3460208959112</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O36" t="n">
-        <v>394.6661099905195</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962379</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>563.8804965334547</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3235375.869575958</v>
+        <v>3237136.399878743</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>304.4053514208621</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>15.14483238681376</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>372.5327915267488</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>74.03158105159699</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>4.719592790138623</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>104.6795171151345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>75.95837434468253</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>202.3860496764733</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>79.05856366754465</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>124.8808320771212</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>135.3135037226517</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>105.11626575513</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3720,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>84.53948348634543</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>46.29306638367343</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.8148076117928</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="C2" t="n">
-        <v>478.8522906713811</v>
+        <v>1997.12368673424</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>1638.85798812749</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1253.069735529245</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>842.0838307396377</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4360,22 +4360,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2681.851280526491</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2681.851280526491</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2350.788393182921</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1998.019737912806</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.553979651726</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.414647675915</v>
+        <v>2366.086203674652</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,16 +4412,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1954.241103772296</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1585.278586831885</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1227.012888225134</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>841.2246356268899</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>430.2387308372824</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2622.369716218629</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2622.369716218629</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.380435748108</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.241103772296</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>394.4025473335336</v>
+        <v>227.6464301928558</v>
       </c>
       <c r="C7" t="n">
-        <v>394.4025473335336</v>
+        <v>58.71024726494892</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>58.71024726494892</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>58.71024726494892</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>58.71024726494892</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>58.71024726494892</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>58.71024726494892</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>58.71024726494892</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="Y7" t="n">
-        <v>394.4025473335336</v>
+        <v>409.2948950230955</v>
       </c>
     </row>
     <row r="8">
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1830.581063083657</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>2381.261620430141</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
         <v>2551.430645747101</v>
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>795.503567798275</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>795.503567798275</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>645.3869283859392</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>497.4738348035461</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>350.5838873056357</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>350.5838873056357</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>977.1520326285147</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>977.1520326285147</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>977.1520326285147</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>977.1520326285147</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>977.1520326285147</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>977.1520326285147</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>977.1520326285147</v>
+        <v>849.4473100711502</v>
       </c>
       <c r="Y10" t="n">
-        <v>977.1520326285147</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5427,10 +5427,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5892,16 +5892,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5983,25 +5983,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>545.3854261579752</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>397.4723325755821</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>397.4723325755821</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6903,7 +6903,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7028,10 +7028,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7074,22 +7074,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1057.955258982919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>889.0190760550122</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>738.9024366426764</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>590.9893430602833</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1239.603723813159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>701.0383482155643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>550.9217088032285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>403.0086152208354</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7654,43 +7654,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8464,10 +8464,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>359.9458024792946</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>306.1979795936941</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>86.4655746247242</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>161.3036423121229</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>13.30196929556061</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>40.30478226780122</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>60.88156453658581</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>711132.8264488542</v>
+        <v>711132.8264488541</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>711132.8264488542</v>
+        <v>711132.8264488541</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>711132.8264488542</v>
+        <v>711132.8264488541</v>
       </c>
     </row>
     <row r="15">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312477</v>
-      </c>
-      <c r="C2" t="n">
-        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312476</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.274728755</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.274728755</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287552</v>
@@ -26352,10 +26352,10 @@
         <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26444,7 +26444,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
@@ -26453,13 +26453,13 @@
         <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-164337.8241097395</v>
+        <v>-164337.8241097392</v>
       </c>
       <c r="C6" t="n">
-        <v>425630.0551048052</v>
+        <v>425630.0551048049</v>
       </c>
       <c r="D6" t="n">
         <v>269826.2490110098</v>
       </c>
       <c r="E6" t="n">
-        <v>-171946.8622969979</v>
+        <v>-171634.220968077</v>
       </c>
       <c r="F6" t="n">
-        <v>599105.8290838085</v>
+        <v>599418.47041273</v>
       </c>
       <c r="G6" t="n">
-        <v>599105.8290838087</v>
+        <v>599418.47041273</v>
       </c>
       <c r="H6" t="n">
-        <v>599105.8290838088</v>
+        <v>599418.4704127302</v>
       </c>
       <c r="I6" t="n">
-        <v>599105.8290838087</v>
+        <v>599418.47041273</v>
       </c>
       <c r="J6" t="n">
-        <v>422682.6098912156</v>
+        <v>422995.2512201365</v>
       </c>
       <c r="K6" t="n">
-        <v>599105.8290838085</v>
+        <v>599418.4704127304</v>
       </c>
       <c r="L6" t="n">
-        <v>599105.8290838085</v>
+        <v>599418.4704127295</v>
       </c>
       <c r="M6" t="n">
-        <v>474897.3183757499</v>
+        <v>475209.9597046712</v>
       </c>
       <c r="N6" t="n">
-        <v>599105.8290838088</v>
+        <v>599418.4704127301</v>
       </c>
       <c r="O6" t="n">
-        <v>599105.8290838082</v>
+        <v>599418.4704127297</v>
       </c>
       <c r="P6" t="n">
-        <v>599105.8290838087</v>
+        <v>599418.4704127301</v>
       </c>
     </row>
   </sheetData>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>109.3788185999329</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>201.303487970844</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>158.8578157762263</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>41.25137849404621</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,19 +27666,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>100.3841317573745</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>40.48036639839838</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>113.9051362369603</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>53.21480732310879</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>23.32360571256382</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>270.3182595810212</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,25 +32311,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>595.327537312171</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35184,10 +35184,10 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2429872186707</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35260,19 +35260,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>467.3215277439574</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35430,7 +35430,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37086,13 +37086,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9858252288377</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
